--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ 99.784 % 확률로 유부남이 좋아하는 와이프 복장</t>
+          <t>[이슈]추미애 "영어실력도 닮은 꼴"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>드루버프좀</t>
+          <t>셸링</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[기타]요즘 유행하고 있는 10대들 유행어</t>
+          <t>[기타]아무 의미없는 알파카 짤</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>내여자민메이</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>479</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[유머]능욕 레전드</t>
+          <t>[유머]Ssd 무료나눔 합니다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wndndn</t>
+          <t>Mythicasual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[기타]후방) 러시아의 평온한 일상 (진짜 일상)</t>
+          <t>[감동](자랑글)마라톤대회 참가 했다가 포상을 받았네요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>걱정없는인생</t>
+          <t>아이짱기여어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,339</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[유머]디즈니월드 에서 정체성을 찾은 아빠</t>
+          <t>[기타]월세 계산 어떻게?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>달섭지롱</t>
+          <t>리바키</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,132</t>
+          <t>1,055</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[유머]딸배 지능 수준</t>
+          <t>[기타]즐거운 눈길 라이딩</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>오징어의율자</t>
+          <t>빨간색감자</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,033</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]김건희 "번역 잘못됐음 안 보면 그만, 지금 나보고 어쩌라고"</t>
+          <t>[이슈]허위경력 비교 체험 .Jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>티알렛</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1,626</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[기타]과연 영화만남이 이루어졌을까.txt</t>
+          <t>[기타]옆집 관리인 아줌마한테 혼났다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>삶이란계란</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>1,639</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,27 +751,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[기타]애사심 안생기는 사원 레전드</t>
+          <t>[이슈]콜롬비아 여자가 본 한국</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>걱정없는인생</t>
+          <t>옆사마</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,393</t>
+          <t>1,640</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[기타]말이 잘통하지 않는 사람특징</t>
+          <t>[기타]품귀현상</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>삶이란계란</t>
+          <t>빨간색감자</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>1,114</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[유머]힘내라 김건희</t>
+          <t>[유머]북한은 코로나 0명임.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>휴면아이디</t>
+          <t>이야르</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1,311</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,557 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[계층]대기업 불륜시리즈3(국OOO)</t>
+          <t>[기타]미쳐버린 만신의 만화</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wndndn</t>
+          <t>내여자민메이</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,485</t>
+          <t>1,599</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[기타]ㅎㅂ 당신은 우파인가요? 좌파인가요?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:29</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>드루버프좀</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>717</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[기타]맘카페의 말빨</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>952</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[이슈]단독]이준석 "尹후보 측에서 요청하면 당연히 복귀 생각"</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>게임추천좀</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[계층]ㅅㅇ)대기업 불륜시리즈2(신OOO)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,421</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[기타]잠이 솔솔 오는 댕댕이</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:26</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>내여자민메이</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[이슈]"김건희씨에게도 기적만 일어날까요?"</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:26</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>셸링</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[유머]하우돈 같은 여동생</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:25</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>사실난라쿤</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,219</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[계층](ㅎㅂ) 과외하는데 성적이 더 떨어짐</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:25</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>달섭지롱</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,379</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[계층]대기업 불륜시리즈1(삼전편)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:24</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,435</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[기타]남친대행알바 구함</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1,357</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[계층]ㅇㅎ)사회적 거리두기</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1,190</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[유머]괴력의 할아버지</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>메롱알아리</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1,041</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[기타]수도관이 얼어붙은지 3일차...</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>시뇨라</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1,338</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[이슈]조국 "똑같이만 해라."</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>셸링</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>[기타]예쁜 여자들은 왜이리 겁이 많을까요</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1,331</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>

--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[이슈]추미애 "영어실력도 닮은 꼴"</t>
+          <t>[이슈]이재명벤져스  어셈블!!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>셸링</t>
+          <t>Paulkubit</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>488</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[기타]아무 의미없는 알파카 짤</t>
+          <t>[이슈]안철수 신천 먹자골목 방문.LIVE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>모에큥</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[유머]Ssd 무료나눔 합니다</t>
+          <t>[이슈]이재명 아들 입시비리 근황</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:31</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mythicasual</t>
+          <t>왜구김당</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>714</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[감동](자랑글)마라톤대회 참가 했다가 포상을 받았네요</t>
+          <t>[유머]가정용 비행시뮬레이션 셋팅</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:29</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>아이짱기여어</t>
+          <t>휴면아이디</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>519</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[기타]월세 계산 어떻게?</t>
+          <t>[계층]흑자헬스 동생 스팸인간 부고 소식...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:26</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>리바키</t>
+          <t>전자팔찌</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,055</t>
+          <t>1,248</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[기타]즐거운 눈길 라이딩</t>
+          <t>[기타]시골에 빨랫줄이 높게 걸린 이유 .gif</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>빨간색감자</t>
+          <t>빅토르장인형</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>831</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]허위경력 비교 체험 .Jpg</t>
+          <t>[이슈]모두 마음만은 따뜻한 연말연시 되세요!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 16:22</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>양단비</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,626</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[기타]옆집 관리인 아줌마한테 혼났다</t>
+          <t>[기타]야마하에서 새로내놓은 기술...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 16:20</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>Radhgridh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,639</t>
+          <t>530</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,27 +751,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[이슈]콜롬비아 여자가 본 한국</t>
+          <t>[기타]드디어 20살이 된 88년생들</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 16:20</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>옆사마</t>
+          <t>파노키</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,640</t>
+          <t>902</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[기타]품귀현상</t>
+          <t>[유머]사기꾼 잡아서 혼내줌</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 16:19</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>빨간색감자</t>
+          <t>휴면아이디</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1,114</t>
+          <t>735</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[유머]북한은 코로나 0명임.</t>
+          <t>[기타]노래 뮤비 하나만 찾아주세요</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 16:12</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>이야르</t>
+          <t>버스터드레스</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,311</t>
+          <t>278</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,32 +856,277 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[기타]미쳐버린 만신의 만화</t>
+          <t>[기타]다음중 군대에서 가장 무서운상황을 고르시오</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.29 16:11</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>내여자민메이</t>
+          <t>삶이란계란</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,599</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[이슈]'혜경궁 김씨' 포문 연 국민의힘..대선에 미칠 영향은</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Busangiants</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[이슈]공수처, 윤석열·김건희도 통신조회…尹 "게슈타포나 할 일" 하지만 네일베댓글반응이...</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>루이스해밀턴</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[계층]따끈따끈 베이커리 근황</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1st미레</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,546</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[기타]살아있다 vs 죽었다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>빨간색감자</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,510</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[기타]암벽타기 레전드</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>노른</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,442</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[유머]동물다큐의 진실</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:06</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>명량거북</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,559</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[이슈]돈이 어디서 나서 코로나 손실보상을 하냐고</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021.12.29 18:06</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>싹다엎어버려</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,076</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[이슈]이재명벤져스  어셈블!!</t>
+          <t>[유머]새벽에 다른팀 여직원한테 연락이 왔음...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paulkubit</t>
+          <t>전자팔찌</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>236</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[이슈]안철수 신천 먹자골목 방문.LIVE</t>
+          <t>[기타]트럭 조심하세요..!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>모에큥</t>
+          <t>노른</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[이슈]이재명 아들 입시비리 근황</t>
+          <t>[게임]똥가루 조력자 업데이트</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>왜구김당</t>
+          <t>썰기</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>252</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,22 +576,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[유머]가정용 비행시뮬레이션 셋팅</t>
+          <t>[기타]기절한 사람 정신 차리는 연출 ㄷㄷ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>휴면아이디</t>
+          <t>멍멍이좋아</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>1,111</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[계층]흑자헬스 동생 스팸인간 부고 소식...</t>
+          <t>[기타]ㅎㅂ 이래도 악마가 좋으신가요?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>전자팔찌</t>
+          <t>드루버프좀</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,248</t>
+          <t>871</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[기타]시골에 빨랫줄이 높게 걸린 이유 .gif</t>
+          <t>[이슈]이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>빅토르장인형</t>
+          <t>Watanabeyou</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>610</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]모두 마음만은 따뜻한 연말연시 되세요!</t>
+          <t>[기타]ㅎㅂ) 극ㅎㅂ... 야함 (움짤임)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>양단비</t>
+          <t>맹구28호</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1,304</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -716,415 +716,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[기타]야마하에서 새로내놓은 기술...</t>
+          <t>[기타]ㅎㅂ 호불호 갈리는 ...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Radhgridh</t>
+          <t>드루버프좀</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1,411</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[기타]드디어 20살이 된 88년생들</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>파노키</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>902</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[유머]사기꾼 잡아서 혼내줌</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:23</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>휴면아이디</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>735</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[기타]노래 뮤비 하나만 찾아주세요</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:22</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>버스터드레스</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[기타]다음중 군대에서 가장 무서운상황을 고르시오</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:21</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[이슈]'혜경궁 김씨' 포문 연 국민의힘..대선에 미칠 영향은</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:21</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Busangiants</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>462</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[이슈]공수처, 윤석열·김건희도 통신조회…尹 "게슈타포나 할 일" 하지만 네일베댓글반응이...</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:18</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>루이스해밀턴</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[계층]따끈따끈 베이커리 근황</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:14</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1st미레</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,546</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[기타]살아있다 vs 죽었다</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:11</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>빨간색감자</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,510</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[기타]암벽타기 레전드</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>노른</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,442</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[유머]동물다큐의 진실</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>명량거북</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,559</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[이슈]돈이 어디서 나서 코로나 손실보상을 하냐고</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>싹다엎어버려</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,076</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[유머]새벽에 다른팀 여직원한테 연락이 왔음...</t>
+          <t>[이슈]윤석열, "수사과정에서 자살하는 건 초조해서 하는 것"(자살당했다는 빡대가리들을 위해)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:51</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>전자팔찌</t>
+          <t>네모0990</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>495</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[기타]트럭 조심하세요..!</t>
+          <t>[유머]레몬 먹는 꿈 꾸는 백소녀</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>노른</t>
+          <t>소각자</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>907</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[게임]똥가루 조력자 업데이트</t>
+          <t>[기타]우리엄마 해고당했다 ㅋㅋ 잘됐다 ㅋㅋ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:59</t>
+          <t>2021.12.29 22:49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>썰기</t>
+          <t>사실난라쿤</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1,173</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[기타]기절한 사람 정신 차리는 연출 ㄷㄷ</t>
+          <t>[이슈]이준석, ‘성상납 의혹 제기’ 가세연 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>멍멍이좋아</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,111</t>
+          <t>451</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,22 +611,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ 이래도 악마가 좋으신가요?</t>
+          <t>[유머]꽈배기 5천원어치만 사온 딸</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:53</t>
+          <t>2021.12.29 22:48</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>드루버프좀</t>
+          <t>사실난라쿤</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>902</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[이슈]이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회</t>
+          <t>[기타]천조국 2인 1조 경찰 클라스.gif</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Watanabeyou</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>980</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ) 극ㅎㅂ... 야함 (움짤임)</t>
+          <t>[이슈]방역패스 유효기간 임박… "새해부터 식당도 못 갈라" 부랴부랴 접종 중</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>맹구28호</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1,304</t>
+          <t>449</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -716,30 +716,135 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ 호불호 갈리는 ...</t>
+          <t>[이슈]국힘 김민전: 이대남들은 술마시고 군대가느라 학점안나와서 불만</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:42</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>드루버프좀</t>
+          <t>유튜버이지금</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,411</t>
+          <t>438</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[기타]한발에 4천만원</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Busangiants</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,584</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[이슈]씨리얼 유튜브 출연취소한 이재명후보 공격하는 특정언론들</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>슬기로움</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[기타]산책하다 기절한 코기.gif</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:33</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Busangiants</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,403</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[이슈]윤석열, "수사과정에서 자살하는 건 초조해서 하는 것"(자살당했다는 빡대가리들을 위해)</t>
+          <t>[이슈] 북한 주재 前독일대사 “김정은, 절대적 독재자 아닌 北시스템 부품”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 22:51</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>네모0990</t>
+          <t>성시아</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[유머]레몬 먹는 꿈 꾸는 백소녀</t>
+          <t>[유머]못생긴 고양이가 겪는 캣맘</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>소각자</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>212</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[기타]우리엄마 해고당했다 ㅋㅋ 잘됐다 ㅋㅋ</t>
+          <t>[계층]무도 초창기 때 멤버들 나이 체감</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:49</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사실난라쿤</t>
+          <t>입사</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,173</t>
+          <t>408</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[이슈]이준석, ‘성상납 의혹 제기’ 가세연 강용석·김세의 고소</t>
+          <t>[유머]ㅎㅂ) AV배우가 겪은 최악의 ㅅㅅ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wealthy</t>
+          <t>치명적인귓볼</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>691</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[유머]꽈배기 5천원어치만 사온 딸</t>
+          <t>[이슈]같잖다는 윤석열</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:48</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사실난라쿤</t>
+          <t>부르마</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>155</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[기타]천조국 2인 1조 경찰 클라스.gif</t>
+          <t>[유머]길치 레전설.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>달섭지롱</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]방역패스 유효기간 임박… "새해부터 식당도 못 갈라" 부랴부랴 접종 중</t>
+          <t>[이슈]승리가 '경찰총장'이라 부른 윤규근, 정직 3개월 징계</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:46</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wealthy</t>
+          <t>입사</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>236</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[이슈]국힘 김민전: 이대남들은 술마시고 군대가느라 학점안나와서 불만</t>
+          <t>[연예]실시간 음원차트 아이유 근황</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>유튜버이지금</t>
+          <t>오징어의율자</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>536</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[기타]한발에 4천만원</t>
+          <t>[이슈]'허버허버' 금지어로 정한 '요기요'에 때아닌 탈퇴 인증 줄이어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>입사</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,584</t>
+          <t>536</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[이슈]씨리얼 유튜브 출연취소한 이재명후보 공격하는 특정언론들</t>
+          <t>[유머]라면 끓이는 방법좀 알려줘</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:40</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>슬기로움</t>
+          <t>오징어의율자</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>954</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -821,30 +821,345 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[기타]산책하다 기절한 코기.gif</t>
+          <t>[이슈]윤 제가 바보입니까? 밈으로 블라인드에서 투표</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:33</t>
+          <t>2021.12.30 17:23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Busangiants</t>
+          <t>왜구김당</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,403</t>
+          <t>894</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[이슈]윤석열 발언 논란 모음</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>까만냥</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[기타]ㅎㅂ) 결혼한다고 트윗올린 모델</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>춘화선생</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,958</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[유머]하이 히틀러러러러</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>소각자</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[계층]작성자 2021년 요기요 1년치</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>스타</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[유머]카푸치노의 유래</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>오징어의율자</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[기타]설강화 관련 jtbc 대응이 웃긴 이유(개인적 생각)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>디아블로4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[기타]스압) 계란냄새 나는 지하 진행중 상황 및 질문!!</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>똥양꿍</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,495</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[기타]가능?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>휴면아이디</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,099</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[유머]ㅎㅂ) 뭐라구요????</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>라면물올렸냐</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,080</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/인벤.xlsx
+++ b/backend/data/인벤.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[이슈] 북한 주재 前독일대사 “김정은, 절대적 독재자 아닌 北시스템 부품”</t>
+          <t>[이슈]유령처럼 살아온 제주 세자매</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>성시아</t>
+          <t>슬기로움</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[유머]못생긴 고양이가 겪는 캣맘</t>
+          <t>[계층]한 미국 배우의 선조의 비밀</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wealthy</t>
+          <t>자상무색</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>510</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[계층]무도 초창기 때 멤버들 나이 체감</t>
+          <t>[계층]제임스 우주망원경이 성공해야하는이유..딥필드..허블..</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>입사</t>
+          <t>루이스해밀턴</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>469</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,27 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[유머]ㅎㅂ) AV배우가 겪은 최악의 ㅅㅅ</t>
+          <t>[기타]어라 3시넘었네요.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>치명적인귓볼</t>
+          <t>삶이란계란</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>358</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[이슈]같잖다는 윤석열</t>
+          <t>[유머]약후) 추워서</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>부르마</t>
+          <t>라면물올렸냐</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>658</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[유머]길치 레전설.jpg</t>
+          <t>[이슈]쿠팡이츠 수수료 50%인하</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>달섭지롱</t>
+          <t>슬기로움</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>590</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]승리가 '경찰총장'이라 부른 윤규근, 정직 3개월 징계</t>
+          <t>[유머]충청도식 화법</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>입사</t>
+          <t>파노키</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>510</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[연예]실시간 음원차트 아이유 근황</t>
+          <t>[이슈]윤석열 "박근혜 건강 회복되면 찾아뵙고 싶다…이명박 빨리 석방돼야"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>오징어의율자</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>287</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[이슈]'허버허버' 금지어로 정한 '요기요'에 때아닌 탈퇴 인증 줄이어</t>
+          <t>[이슈]ㅇㅎ)이재명 "중국 불법 어선에 무관용 대응하겠다."</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>입사</t>
+          <t>인생은경험</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>982</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[유머]라면 끓이는 방법좀 알려줘</t>
+          <t>[이슈]"윤석열 비방 조직적 댓글 964개 포착.. 크라켄이 잡았다"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>오징어의율자</t>
+          <t>막패</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>516</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[이슈]윤 제가 바보입니까? 밈으로 블라인드에서 투표</t>
+          <t>[이슈]방역당국..16세 중 코로나백신 접종후 사망 신고 첫 사례나와</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>왜구김당</t>
+          <t>슬기로움</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,27 +856,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[이슈]윤석열 발언 논란 모음</t>
+          <t>[유머]어메이징 스파이더맨</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>까만냥</t>
+          <t>오징어의율자</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>862</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,27 +891,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ) 결혼한다고 트윗올린 모델</t>
+          <t>[이슈]박ㄹ혜 옥중서신</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>춘화선생</t>
+          <t>왜구김당</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,958</t>
+          <t>758</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,32 +926,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[유머]하이 히틀러러러러</t>
+          <t>[이슈]윤잘알 추미애</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>소각자</t>
+          <t>게임추천좀</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>695</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -961,27 +961,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[계층]작성자 2021년 요기요 1년치</t>
+          <t>[기타]닌텐도가 선정한 올해의 인디게임</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>스타</t>
+          <t>빨간색감자</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>905</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -996,27 +996,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[유머]카푸치노의 유래</t>
+          <t>[계층]82년생 김지영 도입부</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>오징어의율자</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>878</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[기타]설강화 관련 jtbc 대응이 웃긴 이유(개인적 생각)</t>
+          <t>[계층]여성 300명이 비혼의 삶을 결정한 이유</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>디아블로4</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>1,393</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1066,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[기타]스압) 계란냄새 나는 지하 진행중 상황 및 질문!!</t>
+          <t>[이슈]클리앙에 이어 뽐뿌에도 올라온 설강화 법적대응 공지</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>똥양꿍</t>
+          <t>오징어의율자</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1,495</t>
+          <t>1,138</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1101,27 +1101,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[기타]가능?</t>
+          <t>[연예]단 한번도 드라마 찍어본 적 없는 유일한 배우</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>휴면아이디</t>
+          <t>Wealthy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,099</t>
+          <t>2,299</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1136,27 +1136,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[유머]ㅎㅂ) 뭐라구요????</t>
+          <t>[지식]12월 30일   신문을 통해 알게 된 것 들</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:07</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>라면물올렸냐</t>
+          <t>달섭지롱</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2,080</t>
+          <t>354</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
